--- a/gd/美术需求文档/怪物需求/沼泽副本、冥河副本boss设计.xlsx
+++ b/gd/美术需求文档/怪物需求/沼泽副本、冥河副本boss设计.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="271">
   <si>
     <t>动作名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,10 +743,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配合倒地烟雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蛇发1死亡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,22 +914,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自施法点放出暗影波，扩散至全场，命中复用暗影法术弱命中效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复用暗影法术中命中效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暗影蓄力特效，命中复用暗影法术强命中效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影蓄力特效，命中复用暗影法术中命中效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复用斩击弱命中特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -951,10 +935,6 @@
   </si>
   <si>
     <t>水晶球爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸时散出黑烟（配合背后恶魔出现）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1084,10 +1064,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复用施法聚气特效，放出时散出烟雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘶嘶的声音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,19 +1088,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>砰砰砰的声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光扫射声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了4个蛇发其他部分：两个状态，第一状态：mesh名：mesh_body，挂接点在脸上，挂接点名：wp_body;第二个状态：换一张脸mesh名：mesh_body1，挂接点名同第一状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自施法点放出暗影波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，扩散至全场，命中复用暗影法术弱命中效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸时散出黑烟（配合背后恶魔出现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合倒地烟雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>随动作有波动效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>砰砰砰的声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光扫射声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了4个蛇发其他部分：两个状态，第一状态：mesh名：mesh_body，挂接点在脸上，挂接点名：wp_body;第二个状态：换一张脸mesh名：mesh_body1，挂接点名同第一状态</t>
+    <t>medusaDead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meidushaKuangbao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meidushaQunsheluanwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meidushaShihuaguangxian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meidushaYazhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复用施法聚气特效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，放出时散出烟雾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karongShuijingqiusi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karongAnyingbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karongPosui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用暗影蓄力特效，命中复用暗影法术强命中效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用暗影蓄力特效，命中复用暗影法术中命中效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,7 +1201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,8 +1314,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,6 +1352,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1295,7 +1383,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1427,47 +1515,56 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1578,8 +1675,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3074799</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>647381</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>378440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2587,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44:K48"/>
+    <sheetView tabSelected="1" topLeftCell="I79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -2667,10 +2764,10 @@
       <c r="H5" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="47"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="36" t="s">
         <v>16</v>
       </c>
@@ -2698,35 +2795,35 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="41" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="54" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="36" t="s">
@@ -2743,21 +2840,21 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="41" t="s">
         <v>70</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="47"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="36" t="s">
         <v>8</v>
       </c>
@@ -2772,21 +2869,21 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="41" t="s">
         <v>71</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="47"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="36" t="s">
         <v>9</v>
       </c>
@@ -2801,17 +2898,17 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
-      <c r="K9" s="47"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="36" t="s">
         <v>10</v>
       </c>
@@ -2826,17 +2923,17 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
-      <c r="K10" s="47"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="36" t="s">
         <v>11</v>
       </c>
@@ -2851,17 +2948,17 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
-      <c r="K11" s="47"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="36" t="s">
         <v>12</v>
       </c>
@@ -2876,17 +2973,17 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
-      <c r="K12" s="47"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="36" t="s">
         <v>13</v>
       </c>
@@ -2901,17 +2998,17 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
-      <c r="K13" s="47"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="36" t="s">
         <v>44</v>
       </c>
@@ -2926,17 +3023,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
-      <c r="K14" s="47"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="36" t="s">
         <v>61</v>
       </c>
@@ -2951,17 +3048,17 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
-      <c r="K15" s="47"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="36" t="s">
         <v>100</v>
       </c>
@@ -2976,17 +3073,17 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
-      <c r="K16" s="47"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="36" t="s">
         <v>14</v>
       </c>
@@ -3001,17 +3098,17 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="47"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="36" t="s">
         <v>55</v>
       </c>
@@ -3026,14 +3123,14 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="40" customFormat="1" ht="36" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="41" t="s">
@@ -3092,10 +3189,10 @@
       <c r="H20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="36" t="s">
         <v>16</v>
       </c>
@@ -3123,35 +3220,35 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="52"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="41" t="s">
         <v>69</v>
       </c>
       <c r="J21" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="47" t="s">
+      <c r="K21" s="54" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="36" t="s">
@@ -3168,26 +3265,26 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="41" t="s">
         <v>70</v>
       </c>
       <c r="J22" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="47"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N22" s="40" t="s">
         <v>20</v>
@@ -3197,21 +3294,21 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="41" t="s">
         <v>71</v>
       </c>
       <c r="J23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="47"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="36" t="s">
         <v>9</v>
       </c>
@@ -3226,17 +3323,17 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
-      <c r="K24" s="47"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="36" t="s">
         <v>10</v>
       </c>
@@ -3251,17 +3348,17 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
-      <c r="K25" s="47"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="36" t="s">
         <v>11</v>
       </c>
@@ -3276,17 +3373,17 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
-      <c r="K26" s="47"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="36" t="s">
         <v>12</v>
       </c>
@@ -3301,17 +3398,17 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
-      <c r="K27" s="47"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="36" t="s">
         <v>13</v>
       </c>
@@ -3326,17 +3423,17 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
-      <c r="K28" s="47"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="36" t="s">
         <v>44</v>
       </c>
@@ -3351,17 +3448,17 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="47"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="36" t="s">
         <v>61</v>
       </c>
@@ -3376,17 +3473,17 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
-      <c r="K30" s="47"/>
+      <c r="K30" s="54"/>
       <c r="L30" s="36" t="s">
         <v>100</v>
       </c>
@@ -3401,17 +3498,17 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
-      <c r="K31" s="47"/>
+      <c r="K31" s="54"/>
       <c r="L31" s="36" t="s">
         <v>14</v>
       </c>
@@ -3426,22 +3523,22 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="52"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
-      <c r="K32" s="47"/>
+      <c r="K32" s="54"/>
       <c r="L32" s="36" t="s">
         <v>55</v>
       </c>
       <c r="M32" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N32" s="40" t="s">
         <v>88</v>
@@ -3451,14 +3548,14 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="36" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="42"/>
       <c r="J33" s="42"/>
       <c r="K33" s="41" t="s">
@@ -3556,10 +3653,10 @@
       <c r="H38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="J38" s="48"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="6" t="s">
         <v>16</v>
       </c>
@@ -3582,35 +3679,35 @@
         <v>5</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="51.75" customHeight="1">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" s="46" t="s">
+      <c r="G39" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="48" t="s">
         <v>74</v>
       </c>
       <c r="I39" s="26" t="s">
@@ -3619,7 +3716,7 @@
       <c r="J39" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="K39" s="49" t="s">
+      <c r="K39" s="50" t="s">
         <v>66</v>
       </c>
       <c r="L39" s="6" t="s">
@@ -3634,29 +3731,32 @@
       <c r="O39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>168</v>
+      <c r="P39" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="18" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
       <c r="I40" s="32" t="s">
         <v>140</v>
       </c>
       <c r="J40" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="K40" s="49"/>
+      <c r="K40" s="50"/>
       <c r="L40" s="6" t="s">
         <v>100</v>
       </c>
@@ -3671,21 +3771,21 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="34.5">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
       <c r="I41" s="32" t="s">
         <v>141</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="K41" s="49"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="6" t="s">
         <v>14</v>
       </c>
@@ -3700,21 +3800,21 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="65.25" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
       <c r="I42" s="32" t="s">
         <v>142</v>
       </c>
       <c r="J42" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="K42" s="49"/>
+      <c r="K42" s="50"/>
       <c r="L42" s="6" t="s">
         <v>55</v>
       </c>
@@ -3729,21 +3829,21 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="126.75" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="32" t="s">
         <v>143</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="K43" s="49"/>
+      <c r="K43" s="50"/>
       <c r="L43" s="6" t="s">
         <v>7</v>
       </c>
@@ -3758,181 +3858,184 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="18">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="32"/>
-      <c r="K44" s="50" t="s">
+      <c r="K44" s="49" t="s">
         <v>17</v>
       </c>
       <c r="L44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="117.75" customHeight="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="57" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="K45" s="50"/>
+      <c r="J45" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K45" s="49"/>
       <c r="L45" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="103.5">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="48"/>
       <c r="I46" s="34" t="s">
         <v>76</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="K46" s="50"/>
+        <v>229</v>
+      </c>
+      <c r="K46" s="49"/>
       <c r="L46" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="46"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="34" t="s">
         <v>77</v>
       </c>
       <c r="J47" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="K47" s="50"/>
+      <c r="K47" s="49"/>
       <c r="L47" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="36" customHeight="1">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
       <c r="I48" s="34" t="s">
         <v>78</v>
       </c>
       <c r="J48" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="K48" s="50"/>
+      <c r="K48" s="49"/>
       <c r="L48" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>257</v>
+      <c r="P48" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="46"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="37.5" customHeight="1">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
       <c r="I49" s="34" t="s">
         <v>79</v>
       </c>
       <c r="J49" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="K49" s="49" t="s">
+      <c r="K49" s="50" t="s">
         <v>67</v>
       </c>
       <c r="L49" s="6" t="s">
@@ -3942,34 +4045,37 @@
         <v>152</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P49" s="59" t="s">
         <v>259</v>
       </c>
+      <c r="Q49" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="R49" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="J50" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="K50" s="49"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="38.25" customHeight="1">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="J50" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="K50" s="50"/>
       <c r="L50" s="6" t="s">
         <v>126</v>
       </c>
@@ -3977,61 +4083,67 @@
         <v>149</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>258</v>
+      <c r="P50" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="51.75">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="49"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="50"/>
       <c r="L51" s="6" t="s">
         <v>150</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P51" s="54" t="s">
-        <v>252</v>
+      <c r="P51" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="52.15" customHeight="1">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="49"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="50"/>
       <c r="L52" s="6" t="s">
         <v>151</v>
       </c>
@@ -4039,51 +4151,51 @@
         <v>127</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="18" customHeight="1">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="56"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="55"/>
     </row>
     <row r="54" spans="1:19" ht="18" customHeight="1">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="46"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="3"/>
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:19" ht="18" customHeight="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="46"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="3"/>
       <c r="J55" s="23"/>
     </row>
@@ -4137,10 +4249,10 @@
       <c r="H59" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I59" s="48" t="s">
+      <c r="I59" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="48"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="6" t="s">
         <v>16</v>
       </c>
@@ -4168,44 +4280,44 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="51.75" customHeight="1">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="F60" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="45" t="s">
+      <c r="G60" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="H60" s="46" t="s">
+      <c r="H60" s="48" t="s">
         <v>74</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J60" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="K60" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="K60" s="50" t="s">
         <v>66</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>153</v>
@@ -4215,21 +4327,21 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="34.5">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="46"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="48"/>
       <c r="I61" s="32" t="s">
         <v>140</v>
       </c>
       <c r="J61" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="K61" s="49"/>
+        <v>205</v>
+      </c>
+      <c r="K61" s="50"/>
       <c r="L61" s="6" t="s">
         <v>11</v>
       </c>
@@ -4244,17 +4356,17 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="18">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="46"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="48"/>
       <c r="I62" s="32"/>
       <c r="J62" s="33"/>
-      <c r="K62" s="49"/>
+      <c r="K62" s="50"/>
       <c r="L62" s="6" t="s">
         <v>100</v>
       </c>
@@ -4269,21 +4381,21 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="60" customHeight="1">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="46"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="48"/>
       <c r="I63" s="32" t="s">
         <v>75</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="K63" s="49"/>
+        <v>234</v>
+      </c>
+      <c r="K63" s="50"/>
       <c r="L63" s="6" t="s">
         <v>14</v>
       </c>
@@ -4298,21 +4410,21 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="62.25" customHeight="1">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="46"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="48"/>
       <c r="I64" s="32" t="s">
         <v>76</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="K64" s="49"/>
+        <v>233</v>
+      </c>
+      <c r="K64" s="50"/>
       <c r="L64" s="6" t="s">
         <v>55</v>
       </c>
@@ -4327,188 +4439,194 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="55.5" customHeight="1">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="46"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="48"/>
       <c r="I65" s="32" t="s">
         <v>77</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K65" s="15" t="s">
         <v>17</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N65" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="O65" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O65" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="P65" s="23" t="s">
-        <v>221</v>
+      <c r="P65" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q65" s="23" t="s">
+        <v>266</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="141.75" customHeight="1">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
       <c r="I66" s="32" t="s">
         <v>78</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="K66" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="K66" s="50" t="s">
         <v>67</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="142.5" customHeight="1">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="46"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
       <c r="I67" s="32" t="s">
         <v>79</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="K67" s="49"/>
+        <v>230</v>
+      </c>
+      <c r="K67" s="50"/>
       <c r="L67" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P67" s="23" t="s">
-        <v>212</v>
+      <c r="P67" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q67" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="R67" s="23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="46"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="48"/>
       <c r="I68" s="3"/>
       <c r="J68" s="23"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="46"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
       <c r="I69" s="3"/>
       <c r="J69" s="23"/>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="46"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="48"/>
       <c r="I70" s="3"/>
       <c r="J70" s="23"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="46"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="48"/>
       <c r="I71" s="3"/>
       <c r="J71" s="23"/>
       <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="18">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="46"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="48"/>
       <c r="I72" s="3"/>
       <c r="J72" s="23"/>
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:18" ht="36" customHeight="1">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="46"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="48"/>
       <c r="I73" s="3"/>
       <c r="J73" s="23"/>
       <c r="K73" s="26"/>
@@ -4516,62 +4634,62 @@
       <c r="M73" s="23"/>
     </row>
     <row r="74" spans="1:18" ht="18" customHeight="1">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="46"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="48"/>
       <c r="I74" s="3"/>
       <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:18" ht="18" customHeight="1">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
       <c r="I75" s="3"/>
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:18" ht="51.75" customHeight="1">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="45" t="s">
+      <c r="F76" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="G76" s="45"/>
-      <c r="H76" s="46" t="s">
+      <c r="G76" s="47"/>
+      <c r="H76" s="48" t="s">
         <v>135</v>
       </c>
       <c r="I76" s="28"/>
       <c r="J76" s="30"/>
-      <c r="K76" s="49" t="s">
-        <v>179</v>
+      <c r="K76" s="50" t="s">
+        <v>178</v>
       </c>
       <c r="L76" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>153</v>
@@ -4581,17 +4699,17 @@
       </c>
     </row>
     <row r="77" spans="1:18" ht="18" customHeight="1">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="46"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="48"/>
       <c r="I77" s="28"/>
       <c r="J77" s="30"/>
-      <c r="K77" s="49"/>
+      <c r="K77" s="50"/>
       <c r="L77" s="6" t="s">
         <v>10</v>
       </c>
@@ -4606,17 +4724,17 @@
       </c>
     </row>
     <row r="78" spans="1:18" ht="18">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="46"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="48"/>
       <c r="I78" s="28"/>
       <c r="J78" s="29"/>
-      <c r="K78" s="49"/>
+      <c r="K78" s="50"/>
       <c r="L78" s="6" t="s">
         <v>11</v>
       </c>
@@ -4631,22 +4749,22 @@
       </c>
     </row>
     <row r="79" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="46"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="48"/>
       <c r="I79" s="3"/>
       <c r="J79" s="23"/>
-      <c r="K79" s="49"/>
+      <c r="K79" s="50"/>
       <c r="L79" s="6" t="s">
         <v>100</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>156</v>
@@ -4656,17 +4774,17 @@
       </c>
     </row>
     <row r="80" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="46"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="48"/>
       <c r="I80" s="3"/>
       <c r="J80" s="23"/>
-      <c r="K80" s="49"/>
+      <c r="K80" s="50"/>
       <c r="L80" s="6" t="s">
         <v>14</v>
       </c>
@@ -4681,242 +4799,248 @@
       </c>
     </row>
     <row r="81" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="46"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="48"/>
       <c r="I81" s="3"/>
       <c r="J81" s="23"/>
-      <c r="K81" s="50" t="s">
+      <c r="K81" s="49" t="s">
         <v>17</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="46"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="48"/>
       <c r="I82" s="3"/>
       <c r="J82" s="23"/>
-      <c r="K82" s="50"/>
+      <c r="K82" s="49"/>
       <c r="L82" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="2" t="s">
-        <v>231</v>
+      <c r="P82" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="46"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="48"/>
       <c r="I83" s="3"/>
       <c r="J83" s="23"/>
-      <c r="K83" s="50"/>
+      <c r="K83" s="49"/>
       <c r="L83" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P83" s="2" t="s">
-        <v>231</v>
+      <c r="P83" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="66" customHeight="1">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48"/>
       <c r="I84" s="3"/>
       <c r="J84" s="23"/>
       <c r="L84" s="6"/>
     </row>
     <row r="85" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="46"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="48"/>
       <c r="I85" s="3"/>
       <c r="J85" s="23"/>
-      <c r="K85" s="49" t="s">
+      <c r="K85" s="50" t="s">
         <v>67</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P85" s="23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="46"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="72.75" customHeight="1">
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="48"/>
       <c r="I86" s="3"/>
       <c r="J86" s="23"/>
-      <c r="K86" s="49"/>
+      <c r="K86" s="50"/>
       <c r="L86" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P86" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="R86" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="R86" s="2" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="87" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="46"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="48"/>
       <c r="I87" s="3"/>
       <c r="J87" s="23"/>
-      <c r="K87" s="49"/>
+      <c r="K87" s="50"/>
       <c r="L87" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M87" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N87" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P87" s="23" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="51.75">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="46"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="84" customHeight="1">
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="48"/>
       <c r="I88" s="3"/>
       <c r="J88" s="23"/>
-      <c r="K88" s="49"/>
+      <c r="K88" s="50"/>
       <c r="L88" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P88" s="23" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="36" customHeight="1">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="46"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="48"/>
       <c r="I89" s="3"/>
       <c r="J89" s="23"/>
       <c r="K89" s="28"/>
@@ -4924,87 +5048,43 @@
       <c r="M89" s="23"/>
     </row>
     <row r="90" spans="1:18" ht="18" customHeight="1">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="46"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="48"/>
       <c r="I90" s="3"/>
       <c r="J90" s="23"/>
     </row>
     <row r="91" spans="1:18" ht="18" customHeight="1">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="46"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="48"/>
       <c r="I91" s="3"/>
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="1:18" ht="18" customHeight="1">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="46"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="48"/>
       <c r="I92" s="3"/>
       <c r="J92" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="F76:F92"/>
-    <mergeCell ref="H76:H92"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="G60:G92"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K76:K80"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="K85:K88"/>
-    <mergeCell ref="A76:A92"/>
-    <mergeCell ref="B76:B92"/>
-    <mergeCell ref="C76:C92"/>
-    <mergeCell ref="D76:D92"/>
-    <mergeCell ref="E76:E92"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="B60:B75"/>
-    <mergeCell ref="C60:C75"/>
-    <mergeCell ref="D60:D75"/>
-    <mergeCell ref="E60:E75"/>
-    <mergeCell ref="F60:F75"/>
-    <mergeCell ref="H60:H75"/>
-    <mergeCell ref="F21:F33"/>
-    <mergeCell ref="G21:G33"/>
-    <mergeCell ref="H21:H33"/>
-    <mergeCell ref="K21:K32"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="B21:B33"/>
-    <mergeCell ref="C21:C33"/>
-    <mergeCell ref="D21:D33"/>
-    <mergeCell ref="E21:E33"/>
-    <mergeCell ref="A39:A55"/>
-    <mergeCell ref="B39:B55"/>
-    <mergeCell ref="C39:C55"/>
-    <mergeCell ref="E39:E55"/>
-    <mergeCell ref="F39:F55"/>
-    <mergeCell ref="D39:D55"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="H6:H18"/>
-    <mergeCell ref="F6:F18"/>
-    <mergeCell ref="E6:E18"/>
-    <mergeCell ref="C6:C18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="D6:D18"/>
-    <mergeCell ref="G6:G18"/>
     <mergeCell ref="G39:G55"/>
     <mergeCell ref="H39:H55"/>
     <mergeCell ref="K6:K17"/>
@@ -5016,6 +5096,50 @@
     <mergeCell ref="I50:I53"/>
     <mergeCell ref="K44:K48"/>
     <mergeCell ref="K49:K52"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="H6:H18"/>
+    <mergeCell ref="F6:F18"/>
+    <mergeCell ref="E6:E18"/>
+    <mergeCell ref="C6:C18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="D6:D18"/>
+    <mergeCell ref="G6:G18"/>
+    <mergeCell ref="A39:A55"/>
+    <mergeCell ref="B39:B55"/>
+    <mergeCell ref="C39:C55"/>
+    <mergeCell ref="E39:E55"/>
+    <mergeCell ref="F39:F55"/>
+    <mergeCell ref="D39:D55"/>
+    <mergeCell ref="F21:F33"/>
+    <mergeCell ref="G21:G33"/>
+    <mergeCell ref="H21:H33"/>
+    <mergeCell ref="K21:K32"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="B21:B33"/>
+    <mergeCell ref="C21:C33"/>
+    <mergeCell ref="D21:D33"/>
+    <mergeCell ref="E21:E33"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="B60:B75"/>
+    <mergeCell ref="C60:C75"/>
+    <mergeCell ref="D60:D75"/>
+    <mergeCell ref="E60:E75"/>
+    <mergeCell ref="F60:F75"/>
+    <mergeCell ref="H60:H75"/>
+    <mergeCell ref="A76:A92"/>
+    <mergeCell ref="B76:B92"/>
+    <mergeCell ref="C76:C92"/>
+    <mergeCell ref="D76:D92"/>
+    <mergeCell ref="E76:E92"/>
+    <mergeCell ref="F76:F92"/>
+    <mergeCell ref="H76:H92"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="G60:G92"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K76:K80"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="K85:K88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5051,46 +5175,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="16" customFormat="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="242.25" customHeight="1">
       <c r="A3" s="11" t="s">

--- a/gd/美术需求文档/怪物需求/沼泽副本、冥河副本boss设计.xlsx
+++ b/gd/美术需求文档/怪物需求/沼泽副本、冥河副本boss设计.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="268">
   <si>
     <t>动作名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -699,9 +699,6 @@
     <t>daiji</t>
   </si>
   <si>
-    <t>toulan</t>
-  </si>
-  <si>
     <t>siwang</t>
   </si>
   <si>
@@ -728,9 +725,6 @@
   </si>
   <si>
     <t>2秒，亮相动作，不是跳入</t>
-  </si>
-  <si>
-    <t>我方转身为程序调用，不用写在需求中；做一些搞怪动作，持续2秒</t>
   </si>
   <si>
     <t>1~1.5秒倒地，1.5~2秒做完动作</t>
@@ -861,23 +855,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hengsao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyinggongji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jingshenkongzhi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>anyingqiangxi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuijingqiusi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -983,12 +965,6 @@
   </si>
   <si>
     <t>烟雾音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇发1：两个状态：
-正常状态，mesh蒙皮在蛇发骨骼上，mesh名：mesh_she1，挂接点在蛇头上，挂接点名：wp_she1;
-死亡状态：mesh瘫软状态，蒙皮在躯干上mesh名：mesh_sishe1，没有挂接点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1016,14 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一共两组蛇发，一组绑在正常蛇发骨骼上，一组视为已死亡，垂在身上。我们这边调用时可以对mesh进行隐藏和显示达到不同的状态表现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss发怒时，狂暴动作（此时会做头部特写）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1096,33 +1064,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>除了4个蛇发其他部分：两个状态，第一状态：mesh名：mesh_body，挂接点在脸上，挂接点名：wp_body;第二个状态：换一张脸mesh名：mesh_body1，挂接点名同第一状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自施法点放出暗影波</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，扩散至全场，命中复用暗影法术弱命中效果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爆炸时散出黑烟（配合背后恶魔出现）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1155,28 +1096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复用施法聚气特效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，放出时散出烟雾</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>karongShuijingqiusi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1194,6 +1113,40 @@
   </si>
   <si>
     <t>复用暗影蓄力特效，命中复用暗影法术中命中效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（复用暗影强袭动作）背后恶魔用左爪横扫抓绕敌方全体，1.0秒时命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（复用精神控制动作）背后恶魔用右爪先蓄力，然后自上而下抓绕敌方单体，1.5秒时命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了4个蛇发其他部分：两个状态，第一状态：mesh名：mesh_body，挂接点在脸上，挂接点名：wp_body;第二个状态：换一张脸需要一个眼睛位置的火光特效，挂在wp_body即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇发1：两个状态：
+正常状态，mesh蒙皮在蛇发骨骼上，mesh名：mesh_she1，挂接点在蛇头上，挂接点名：wp_she1;
+死亡状态：没有mesh，没有挂接点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用施法聚气特效，放出时散出烟雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自施法点放出暗影波，扩散至全场，命中复用暗影法术弱命中效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1316,19 +1269,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,13 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1323,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1484,9 +1424,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1515,56 +1452,60 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1576,14 +1517,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1675,8 +1608,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3074799</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>378440</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>61873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1828,7 +1761,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>4025170</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>703090</xdr:rowOff>
+      <xdr:rowOff>86766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1866,7 +1799,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>3193677</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>171824</xdr:rowOff>
+      <xdr:rowOff>171823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1897,13 +1830,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1670957</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>175452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2813694</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>678117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2682,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q90" sqref="Q90"/>
+    <sheetView tabSelected="1" topLeftCell="I32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -2739,838 +2672,838 @@
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="1:19" s="40" customFormat="1" ht="18">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:19" s="39" customFormat="1" ht="18">
+      <c r="A5" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="36" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35" t="s">
+      <c r="R5" s="34"/>
+      <c r="S5" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:19" s="39" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="41" t="s">
+    <row r="7" spans="1:19" s="39" customFormat="1" ht="34.5">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="36" t="s">
+      <c r="K7" s="46"/>
+      <c r="L7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="41" t="s">
+    <row r="8" spans="1:19" s="39" customFormat="1" ht="34.5">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="36" t="s">
+      <c r="K8" s="46"/>
+      <c r="L8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="36" t="s">
+    <row r="9" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="36" t="s">
+    <row r="10" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="36" t="s">
+    <row r="11" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="36" t="s">
+    <row r="12" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="36" t="s">
+    <row r="13" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="40" t="s">
+      <c r="N13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="36" t="s">
+    <row r="14" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="M14" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="40" t="s">
+      <c r="O14" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="36" t="s">
+    <row r="15" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="36" t="s">
+    <row r="16" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="40" t="s">
+      <c r="M16" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="N16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="36" t="s">
+    <row r="17" spans="1:19" s="39" customFormat="1" ht="34.5">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="43" t="s">
+      <c r="M17" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="40" t="s">
+      <c r="N17" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="40" customFormat="1" ht="36" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="41" t="s">
+    <row r="18" spans="1:19" s="39" customFormat="1" ht="36" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="40" t="s">
+      <c r="N18" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="40" t="s">
+      <c r="O18" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="40" customFormat="1" ht="36" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="43"/>
-    </row>
-    <row r="20" spans="1:19" s="40" customFormat="1" ht="18">
-      <c r="A20" s="35" t="s">
+    <row r="19" spans="1:19" s="39" customFormat="1" ht="36" customHeight="1">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="42"/>
+    </row>
+    <row r="20" spans="1:19" s="39" customFormat="1" ht="18">
+      <c r="A20" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="36" t="s">
+      <c r="J20" s="46"/>
+      <c r="K20" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="N20" s="35" t="s">
+      <c r="N20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="35" t="s">
+      <c r="O20" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="39" t="s">
+      <c r="P20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="35" t="s">
+      <c r="Q20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35" t="s">
+      <c r="R20" s="34"/>
+      <c r="S20" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="52" t="s">
+    <row r="21" spans="1:19" s="39" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="41" t="s">
+      <c r="H21" s="51"/>
+      <c r="I21" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="54" t="s">
+      <c r="K21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="36" t="s">
+      <c r="L21" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="40" t="s">
+      <c r="N21" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="40" t="s">
+      <c r="O21" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="41" t="s">
+    <row r="22" spans="1:19" s="39" customFormat="1" ht="34.5">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="36" t="s">
+      <c r="K22" s="46"/>
+      <c r="L22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="N22" s="40" t="s">
+      <c r="M22" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="40" t="s">
+      <c r="O22" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="41" t="s">
+    <row r="23" spans="1:19" s="39" customFormat="1" ht="34.5">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="36" t="s">
+      <c r="K23" s="46"/>
+      <c r="L23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="40" t="s">
+      <c r="N23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="40" t="s">
+      <c r="O23" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="36" t="s">
+    <row r="24" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="40" t="s">
+      <c r="M24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="40" t="s">
+      <c r="O24" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="36" t="s">
+    <row r="25" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="N25" s="40" t="s">
+      <c r="N25" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="40" t="s">
+      <c r="O25" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="36" t="s">
+    <row r="26" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="40" t="s">
+      <c r="O26" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="36" t="s">
+    <row r="27" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="N27" s="40" t="s">
+      <c r="N27" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="40" t="s">
+      <c r="O27" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="36" t="s">
+    <row r="28" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="40" t="s">
+      <c r="M28" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="36" t="s">
+    <row r="29" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="M29" s="40" t="s">
+      <c r="M29" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="40" t="s">
+      <c r="N29" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O29" s="40" t="s">
+      <c r="O29" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="36" t="s">
+    <row r="30" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="M30" s="40" t="s">
+      <c r="M30" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="36" t="s">
+    <row r="31" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M31" s="40" t="s">
+      <c r="M31" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N31" s="40" t="s">
+      <c r="N31" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O31" s="40" t="s">
+      <c r="O31" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="40" customFormat="1" ht="34.5">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="36" t="s">
+    <row r="32" spans="1:19" s="39" customFormat="1" ht="34.5">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="M32" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="N32" s="40" t="s">
+      <c r="M32" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="N32" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="O32" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="40" customFormat="1" ht="36" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="41" t="s">
+    <row r="33" spans="1:19" s="39" customFormat="1" ht="36" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="M33" s="43" t="s">
+      <c r="M33" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="N33" s="40" t="s">
+      <c r="N33" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="O33" s="40" t="s">
+      <c r="O33" s="39" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3653,10 +3586,10 @@
       <c r="H38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J38" s="51"/>
+      <c r="J38" s="47"/>
       <c r="K38" s="6" t="s">
         <v>16</v>
       </c>
@@ -3679,35 +3612,35 @@
         <v>5</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="51.75" customHeight="1">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39" s="48" t="s">
+      <c r="G39" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="45" t="s">
         <v>74</v>
       </c>
       <c r="I39" s="26" t="s">
@@ -3716,139 +3649,139 @@
       <c r="J39" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="K39" s="50" t="s">
+      <c r="K39" s="48" t="s">
         <v>66</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P39" s="60" t="s">
-        <v>258</v>
+      <c r="P39" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="18" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
       <c r="I40" s="32" t="s">
         <v>140</v>
       </c>
       <c r="J40" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="K40" s="50"/>
+      <c r="K40" s="48"/>
       <c r="L40" s="6" t="s">
         <v>100</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="34.5">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
       <c r="I41" s="32" t="s">
         <v>141</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="K41" s="50"/>
+      <c r="K41" s="48"/>
       <c r="L41" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="65.25" customHeight="1">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="45"/>
       <c r="I42" s="32" t="s">
         <v>142</v>
       </c>
       <c r="J42" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="K42" s="50"/>
+      <c r="K42" s="48"/>
       <c r="L42" s="6" t="s">
         <v>55</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="126.75" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="45"/>
       <c r="I43" s="32" t="s">
         <v>143</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="K43" s="50"/>
+      <c r="K43" s="48"/>
       <c r="L43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>153</v>
@@ -3858,184 +3791,184 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="18">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="45"/>
       <c r="I44" s="32"/>
       <c r="K44" s="49" t="s">
         <v>17</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="117.75" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="45" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="46" t="s">
-        <v>255</v>
+      <c r="J45" s="60" t="s">
+        <v>263</v>
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="103.5">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="86.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="J46" s="23" t="s">
-        <v>229</v>
+      <c r="J46" s="60" t="s">
+        <v>264</v>
       </c>
       <c r="K46" s="49"/>
       <c r="L46" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="34" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="57" t="s">
         <v>136</v>
       </c>
       <c r="K47" s="49"/>
       <c r="L47" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="36" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="34" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="J48" s="57" t="s">
         <v>137</v>
       </c>
       <c r="K48" s="49"/>
       <c r="L48" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P48" s="59" t="s">
+      <c r="P48" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q48" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="Q48" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="R48" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="37.5" customHeight="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="34" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="J49" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="K49" s="50" t="s">
+      <c r="K49" s="48" t="s">
         <v>67</v>
       </c>
       <c r="L49" s="6" t="s">
@@ -4045,37 +3978,33 @@
         <v>152</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P49" s="59" t="s">
-        <v>259</v>
+      <c r="P49" s="55" t="s">
+        <v>249</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="38.25" customHeight="1">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="J50" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="K50" s="50"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="48"/>
       <c r="L50" s="6" t="s">
         <v>126</v>
       </c>
@@ -4083,67 +4012,67 @@
         <v>149</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P50" s="59" t="s">
-        <v>252</v>
+      <c r="P50" s="55" t="s">
+        <v>244</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="51.75">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="50"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="48"/>
       <c r="L51" s="6" t="s">
         <v>150</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P51" s="61" t="s">
+      <c r="P51" s="56" t="s">
         <v>265</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="52.15" customHeight="1">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="50"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="48"/>
       <c r="L52" s="6" t="s">
         <v>151</v>
       </c>
@@ -4151,51 +4080,51 @@
         <v>127</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="18" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="55"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="58"/>
     </row>
     <row r="54" spans="1:19" ht="18" customHeight="1">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="48"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="45"/>
       <c r="I54" s="3"/>
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:19" ht="18" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="48"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="45"/>
       <c r="I55" s="3"/>
       <c r="J55" s="23"/>
     </row>
@@ -4249,10 +4178,10 @@
       <c r="H59" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="51"/>
+      <c r="J59" s="47"/>
       <c r="K59" s="6" t="s">
         <v>16</v>
       </c>
@@ -4274,50 +4203,52 @@
       <c r="Q59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="1"/>
+      <c r="R59" s="53" t="s">
+        <v>267</v>
+      </c>
       <c r="S59" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="51.75" customHeight="1">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="47" t="s">
+      <c r="F60" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="47" t="s">
+      <c r="G60" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="H60" s="48" t="s">
+      <c r="H60" s="45" t="s">
         <v>74</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J60" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="K60" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="K60" s="48" t="s">
         <v>66</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>153</v>
@@ -4327,306 +4258,306 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="34.5">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="48"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="45"/>
       <c r="I61" s="32" t="s">
         <v>140</v>
       </c>
       <c r="J61" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="K61" s="50"/>
+        <v>200</v>
+      </c>
+      <c r="K61" s="48"/>
       <c r="L61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="18">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="45"/>
       <c r="I62" s="32"/>
       <c r="J62" s="33"/>
-      <c r="K62" s="50"/>
+      <c r="K62" s="48"/>
       <c r="L62" s="6" t="s">
         <v>100</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="60" customHeight="1">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="48"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="45"/>
       <c r="I63" s="32" t="s">
         <v>75</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="K63" s="50"/>
+        <v>228</v>
+      </c>
+      <c r="K63" s="48"/>
       <c r="L63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="62.25" customHeight="1">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="48"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="45"/>
       <c r="I64" s="32" t="s">
         <v>76</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="K64" s="50"/>
+        <v>227</v>
+      </c>
+      <c r="K64" s="48"/>
       <c r="L64" s="6" t="s">
         <v>55</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="55.5" customHeight="1">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="48"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="45"/>
       <c r="I65" s="32" t="s">
         <v>77</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K65" s="15" t="s">
         <v>17</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
+      </c>
+      <c r="N65" s="61" t="s">
+        <v>262</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="P65" s="59" t="s">
-        <v>257</v>
+        <v>198</v>
+      </c>
+      <c r="P65" s="55" t="s">
+        <v>247</v>
       </c>
       <c r="Q65" s="23" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="141.75" customHeight="1">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="45"/>
       <c r="I66" s="32" t="s">
         <v>78</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="K66" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="K66" s="48" t="s">
         <v>67</v>
       </c>
       <c r="L66" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M66" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="N66" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="M66" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="142.5" customHeight="1">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="45"/>
       <c r="I67" s="32" t="s">
         <v>79</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="K67" s="50"/>
+        <v>224</v>
+      </c>
+      <c r="K67" s="48"/>
       <c r="L67" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P67" s="58" t="s">
+      <c r="P67" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q67" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="Q67" s="23" t="s">
-        <v>267</v>
-      </c>
       <c r="R67" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="48"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="45"/>
       <c r="I68" s="3"/>
       <c r="J68" s="23"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="48"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="3"/>
       <c r="J69" s="23"/>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="48"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="3"/>
       <c r="J70" s="23"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="48"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="45"/>
       <c r="I71" s="3"/>
       <c r="J71" s="23"/>
       <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="18">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="48"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="45"/>
       <c r="I72" s="3"/>
       <c r="J72" s="23"/>
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:18" ht="36" customHeight="1">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="48"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="45"/>
       <c r="I73" s="3"/>
       <c r="J73" s="23"/>
       <c r="K73" s="26"/>
@@ -4634,62 +4565,62 @@
       <c r="M73" s="23"/>
     </row>
     <row r="74" spans="1:18" ht="18" customHeight="1">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="48"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="45"/>
       <c r="I74" s="3"/>
       <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:18" ht="18" customHeight="1">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="45"/>
       <c r="I75" s="3"/>
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:18" ht="51.75" customHeight="1">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D76" s="47" t="s">
+      <c r="D76" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="47" t="s">
+      <c r="E76" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="47" t="s">
+      <c r="F76" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48" t="s">
+      <c r="G76" s="44"/>
+      <c r="H76" s="45" t="s">
         <v>135</v>
       </c>
       <c r="I76" s="28"/>
       <c r="J76" s="30"/>
-      <c r="K76" s="50" t="s">
-        <v>178</v>
+      <c r="K76" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="L76" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>153</v>
@@ -4698,393 +4629,412 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="18" customHeight="1">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="48"/>
+    <row r="77" spans="1:18" ht="18">
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="45"/>
       <c r="I77" s="28"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="50"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="48"/>
       <c r="L77" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>154</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="18">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="50"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="48"/>
       <c r="L78" s="6" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="48"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="45"/>
       <c r="I79" s="3"/>
       <c r="J79" s="23"/>
-      <c r="K79" s="50"/>
+      <c r="K79" s="48"/>
       <c r="L79" s="6" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>156</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="48"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="50.25" customHeight="1">
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="45"/>
       <c r="I80" s="3"/>
       <c r="J80" s="23"/>
-      <c r="K80" s="50"/>
+      <c r="K80" s="49" t="s">
+        <v>17</v>
+      </c>
       <c r="L80" s="6" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="48"/>
+    <row r="81" spans="1:18" ht="56.25" customHeight="1">
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="45"/>
       <c r="I81" s="3"/>
       <c r="J81" s="23"/>
-      <c r="K81" s="49" t="s">
-        <v>17</v>
-      </c>
+      <c r="K81" s="49"/>
       <c r="L81" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="48"/>
+      <c r="P81" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="38.25" customHeight="1">
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="45"/>
       <c r="I82" s="3"/>
       <c r="J82" s="23"/>
       <c r="K82" s="49"/>
       <c r="L82" s="6" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="60" t="s">
-        <v>226</v>
+      <c r="P82" s="62" t="s">
+        <v>221</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="48"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="66" customHeight="1">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="45"/>
       <c r="I83" s="3"/>
       <c r="J83" s="23"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P83" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="66" customHeight="1">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="45"/>
       <c r="I84" s="3"/>
       <c r="J84" s="23"/>
-      <c r="L84" s="6"/>
-    </row>
-    <row r="85" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
+      <c r="K84" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P84" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="72.75" customHeight="1">
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="45"/>
       <c r="I85" s="3"/>
       <c r="J85" s="23"/>
-      <c r="K85" s="50" t="s">
-        <v>67</v>
-      </c>
+      <c r="K85" s="48"/>
       <c r="L85" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P85" s="23" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="72.75" customHeight="1">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="48"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="45"/>
       <c r="I86" s="3"/>
       <c r="J86" s="23"/>
-      <c r="K86" s="50"/>
+      <c r="K86" s="48"/>
       <c r="L86" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
+      </c>
+      <c r="M86" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="N86" s="61" t="s">
+        <v>197</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P86" s="23" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="48"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="84" customHeight="1">
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="45"/>
       <c r="I87" s="3"/>
       <c r="J87" s="23"/>
-      <c r="K87" s="50"/>
+      <c r="K87" s="48"/>
       <c r="L87" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>198</v>
+        <v>234</v>
+      </c>
+      <c r="M87" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="N87" s="61" t="s">
+        <v>196</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P87" s="23" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="84" customHeight="1">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="48"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="36" customHeight="1">
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="45"/>
       <c r="I88" s="3"/>
       <c r="J88" s="23"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P88" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="36" customHeight="1">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="48"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="23"/>
+    </row>
+    <row r="89" spans="1:18" ht="18" customHeight="1">
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="45"/>
       <c r="I89" s="3"/>
       <c r="J89" s="23"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="23"/>
     </row>
     <row r="90" spans="1:18" ht="18" customHeight="1">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="48"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="45"/>
       <c r="I90" s="3"/>
       <c r="J90" s="23"/>
     </row>
     <row r="91" spans="1:18" ht="18" customHeight="1">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="48"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="45"/>
       <c r="I91" s="3"/>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:18" ht="18" customHeight="1">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="23"/>
-    </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="F76:F91"/>
+    <mergeCell ref="H76:H91"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="G60:G91"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="A76:A91"/>
+    <mergeCell ref="B76:B91"/>
+    <mergeCell ref="C76:C91"/>
+    <mergeCell ref="D76:D91"/>
+    <mergeCell ref="E76:E91"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="B60:B75"/>
+    <mergeCell ref="C60:C75"/>
+    <mergeCell ref="D60:D75"/>
+    <mergeCell ref="E60:E75"/>
+    <mergeCell ref="F60:F75"/>
+    <mergeCell ref="H60:H75"/>
+    <mergeCell ref="F21:F33"/>
+    <mergeCell ref="G21:G33"/>
+    <mergeCell ref="H21:H33"/>
+    <mergeCell ref="K21:K32"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="B21:B33"/>
+    <mergeCell ref="C21:C33"/>
+    <mergeCell ref="D21:D33"/>
+    <mergeCell ref="E21:E33"/>
+    <mergeCell ref="A39:A55"/>
+    <mergeCell ref="B39:B55"/>
+    <mergeCell ref="C39:C55"/>
+    <mergeCell ref="E39:E55"/>
+    <mergeCell ref="F39:F55"/>
+    <mergeCell ref="D39:D55"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="H6:H18"/>
+    <mergeCell ref="F6:F18"/>
+    <mergeCell ref="E6:E18"/>
+    <mergeCell ref="C6:C18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="D6:D18"/>
+    <mergeCell ref="G6:G18"/>
     <mergeCell ref="G39:G55"/>
     <mergeCell ref="H39:H55"/>
     <mergeCell ref="K6:K17"/>
@@ -5096,50 +5046,6 @@
     <mergeCell ref="I50:I53"/>
     <mergeCell ref="K44:K48"/>
     <mergeCell ref="K49:K52"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="H6:H18"/>
-    <mergeCell ref="F6:F18"/>
-    <mergeCell ref="E6:E18"/>
-    <mergeCell ref="C6:C18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="D6:D18"/>
-    <mergeCell ref="G6:G18"/>
-    <mergeCell ref="A39:A55"/>
-    <mergeCell ref="B39:B55"/>
-    <mergeCell ref="C39:C55"/>
-    <mergeCell ref="E39:E55"/>
-    <mergeCell ref="F39:F55"/>
-    <mergeCell ref="D39:D55"/>
-    <mergeCell ref="F21:F33"/>
-    <mergeCell ref="G21:G33"/>
-    <mergeCell ref="H21:H33"/>
-    <mergeCell ref="K21:K32"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="B21:B33"/>
-    <mergeCell ref="C21:C33"/>
-    <mergeCell ref="D21:D33"/>
-    <mergeCell ref="E21:E33"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="B60:B75"/>
-    <mergeCell ref="C60:C75"/>
-    <mergeCell ref="D60:D75"/>
-    <mergeCell ref="E60:E75"/>
-    <mergeCell ref="F60:F75"/>
-    <mergeCell ref="H60:H75"/>
-    <mergeCell ref="A76:A92"/>
-    <mergeCell ref="B76:B92"/>
-    <mergeCell ref="C76:C92"/>
-    <mergeCell ref="D76:D92"/>
-    <mergeCell ref="E76:E92"/>
-    <mergeCell ref="F76:F92"/>
-    <mergeCell ref="H76:H92"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="G60:G92"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K76:K80"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="K85:K88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5175,46 +5081,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="16" customFormat="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="52" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="15">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="242.25" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -5261,7 +5167,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/gd/美术需求文档/怪物需求/沼泽副本、冥河副本boss设计.xlsx
+++ b/gd/美术需求文档/怪物需求/沼泽副本、冥河副本boss设计.xlsx
@@ -802,10 +802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>倒地声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shefasi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -904,10 +900,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放波音效，命中同复用特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同复用特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,14 +949,6 @@
   </si>
   <si>
     <t>破碎特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟雾音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1032,10 +1016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘶嘶的声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蛇死的声音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,23 +1024,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冒火的声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰上升（曝气）效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>石化光线扫射敌方站位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砰砰砰的声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光扫射声音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1147,6 +1115,39 @@
   </si>
   <si>
     <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖叫：Meidushadead1
+倒地：Meidushadead2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒火的声音：Meidushakuangbao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砰砰砰的声音：Meidushaqunsheluanwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光扫射声音：Meidushashihuaguangxian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘶嘶的声音：Meidushayazhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雾音效：Karongshuijingqiusi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎音效：Karongposui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放波音效：Karonganyingbo，命中同复用特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1452,33 +1453,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1492,20 +1466,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1563,15 +1564,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>144395</xdr:colOff>
+      <xdr:colOff>9925</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1106854</xdr:rowOff>
+      <xdr:rowOff>468119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3382103</xdr:colOff>
+      <xdr:colOff>3055049</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>1475975</xdr:rowOff>
+      <xdr:rowOff>705971</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1588,8 +1589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11641630" y="14497883"/>
-          <a:ext cx="3237708" cy="2206886"/>
+          <a:off x="11507160" y="13859148"/>
+          <a:ext cx="3045124" cy="2075617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1601,15 +1602,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>775125</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1138984</xdr:rowOff>
+      <xdr:colOff>3070411</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>646693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3074799</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>61873</xdr:rowOff>
+      <xdr:colOff>5215122</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>409255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1626,8 +1627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12272360" y="17028925"/>
-          <a:ext cx="2299674" cy="1715956"/>
+          <a:off x="14567646" y="14037722"/>
+          <a:ext cx="2144711" cy="1600327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1862,6 +1863,361 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1109383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4550149</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>468966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7169" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11923059" y="16338177"/>
+          <a:ext cx="4124325" cy="3113554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1383196</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1706218</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12879457" y="18114065"/>
+          <a:ext cx="323022" cy="364435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3573118</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>202096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3896140</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>86140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15069379" y="18597770"/>
+          <a:ext cx="323022" cy="364435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1511820</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>377590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1834842</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>742025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13008081" y="17009068"/>
+          <a:ext cx="323022" cy="364435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3748124</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1421199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4071146</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>286482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15244385" y="16553525"/>
+          <a:ext cx="323022" cy="364435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2617,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="I61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R67" sqref="R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -2639,7 +2995,7 @@
     <col min="15" max="15" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.375" style="2" customWidth="1"/>
     <col min="17" max="17" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26.375" style="2" customWidth="1"/>
     <col min="19" max="19" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
@@ -2697,10 +3053,10 @@
       <c r="H5" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="35" t="s">
         <v>16</v>
       </c>
@@ -2728,35 +3084,35 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="61"/>
       <c r="I6" s="40" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="55" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="35" t="s">
@@ -2773,21 +3129,21 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="39" customFormat="1" ht="34.5">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J7" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="46"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="35" t="s">
         <v>8</v>
       </c>
@@ -2802,21 +3158,21 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="39" customFormat="1" ht="34.5">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="40" t="s">
         <v>71</v>
       </c>
       <c r="J8" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="46"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="35" t="s">
         <v>9</v>
       </c>
@@ -2831,17 +3187,17 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="46"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="35" t="s">
         <v>10</v>
       </c>
@@ -2856,17 +3212,17 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="46"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="35" t="s">
         <v>11</v>
       </c>
@@ -2881,17 +3237,17 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
-      <c r="K11" s="46"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="35" t="s">
         <v>12</v>
       </c>
@@ -2906,17 +3262,17 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="46"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="35" t="s">
         <v>13</v>
       </c>
@@ -2931,17 +3287,17 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="46"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="35" t="s">
         <v>44</v>
       </c>
@@ -2956,17 +3312,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
-      <c r="K14" s="46"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="35" t="s">
         <v>61</v>
       </c>
@@ -2981,17 +3337,17 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
-      <c r="K15" s="46"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="35" t="s">
         <v>100</v>
       </c>
@@ -3006,17 +3362,17 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="35" t="s">
         <v>14</v>
       </c>
@@ -3031,17 +3387,17 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="39" customFormat="1" ht="34.5">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
-      <c r="K17" s="46"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="35" t="s">
         <v>55</v>
       </c>
@@ -3056,14 +3412,14 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="39" customFormat="1" ht="36" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="40" t="s">
@@ -3122,10 +3478,10 @@
       <c r="H20" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="46"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="35" t="s">
         <v>16</v>
       </c>
@@ -3153,35 +3509,35 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="51"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="40" t="s">
         <v>69</v>
       </c>
       <c r="J21" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="55" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="35" t="s">
@@ -3198,26 +3554,26 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="39" customFormat="1" ht="34.5">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J22" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="35" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N22" s="39" t="s">
         <v>20</v>
@@ -3227,21 +3583,21 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="39" customFormat="1" ht="34.5">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="40" t="s">
         <v>71</v>
       </c>
       <c r="J23" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="46"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="35" t="s">
         <v>9</v>
       </c>
@@ -3256,17 +3612,17 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
-      <c r="K24" s="46"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="35" t="s">
         <v>10</v>
       </c>
@@ -3281,17 +3637,17 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
-      <c r="K25" s="46"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="35" t="s">
         <v>11</v>
       </c>
@@ -3306,17 +3662,17 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
-      <c r="K26" s="46"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="35" t="s">
         <v>12</v>
       </c>
@@ -3331,17 +3687,17 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
-      <c r="K27" s="46"/>
+      <c r="K27" s="55"/>
       <c r="L27" s="35" t="s">
         <v>13</v>
       </c>
@@ -3356,17 +3712,17 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="46"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="35" t="s">
         <v>44</v>
       </c>
@@ -3381,17 +3737,17 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
-      <c r="K29" s="46"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="35" t="s">
         <v>61</v>
       </c>
@@ -3406,17 +3762,17 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
-      <c r="K30" s="46"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="35" t="s">
         <v>100</v>
       </c>
@@ -3431,17 +3787,17 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
-      <c r="K31" s="46"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="35" t="s">
         <v>14</v>
       </c>
@@ -3456,22 +3812,22 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="39" customFormat="1" ht="34.5">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
-      <c r="K32" s="46"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="35" t="s">
         <v>55</v>
       </c>
       <c r="M32" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N32" s="39" t="s">
         <v>88</v>
@@ -3481,14 +3837,14 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="39" customFormat="1" ht="36" customHeight="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
       <c r="K33" s="40" t="s">
@@ -3586,10 +3942,10 @@
       <c r="H38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="47" t="s">
+      <c r="I38" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J38" s="47"/>
+      <c r="J38" s="56"/>
       <c r="K38" s="6" t="s">
         <v>16</v>
       </c>
@@ -3619,28 +3975,28 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="51.75" customHeight="1">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="H39" s="45" t="s">
+      <c r="H39" s="54" t="s">
         <v>74</v>
       </c>
       <c r="I39" s="26" t="s">
@@ -3649,7 +4005,7 @@
       <c r="J39" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="57" t="s">
         <v>66</v>
       </c>
       <c r="L39" s="6" t="s">
@@ -3664,32 +4020,32 @@
       <c r="O39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P39" s="62" t="s">
-        <v>248</v>
+      <c r="P39" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>182</v>
+        <v>242</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="18" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
       <c r="I40" s="32" t="s">
         <v>140</v>
       </c>
       <c r="J40" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="K40" s="48"/>
+      <c r="K40" s="57"/>
       <c r="L40" s="6" t="s">
         <v>100</v>
       </c>
@@ -3704,21 +4060,21 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="34.5">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="32" t="s">
         <v>141</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="K41" s="48"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="6" t="s">
         <v>14</v>
       </c>
@@ -3733,21 +4089,21 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="65.25" customHeight="1">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="32" t="s">
         <v>142</v>
       </c>
       <c r="J42" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="K42" s="48"/>
+      <c r="K42" s="57"/>
       <c r="L42" s="6" t="s">
         <v>55</v>
       </c>
@@ -3762,21 +4118,21 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="126.75" customHeight="1">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="45"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
       <c r="I43" s="32" t="s">
         <v>143</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="K43" s="48"/>
+      <c r="K43" s="57"/>
       <c r="L43" s="6" t="s">
         <v>7</v>
       </c>
@@ -3791,16 +4147,16 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="18">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="45"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="54"/>
       <c r="I44" s="32"/>
-      <c r="K44" s="49" t="s">
+      <c r="K44" s="59" t="s">
         <v>17</v>
       </c>
       <c r="L44" s="6" t="s">
@@ -3810,31 +4166,31 @@
         <v>167</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="117.75" customHeight="1">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="59" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="K45" s="49"/>
+      <c r="J45" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="K45" s="59"/>
       <c r="L45" s="6" t="s">
         <v>168</v>
       </c>
@@ -3842,31 +4198,31 @@
         <v>171</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="86.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="59" t="s">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J46" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="K46" s="49"/>
+      <c r="J46" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="K46" s="59"/>
       <c r="L46" s="6" t="s">
         <v>169</v>
       </c>
@@ -3874,31 +4230,31 @@
         <v>172</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="54" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J47" s="57" t="s">
+      <c r="J47" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="K47" s="49"/>
+      <c r="K47" s="59"/>
       <c r="L47" s="6" t="s">
         <v>170</v>
       </c>
@@ -3906,69 +4262,69 @@
         <v>173</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>87</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="36" customHeight="1">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="54" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="57" t="s">
+      <c r="J48" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="K48" s="49"/>
+      <c r="K48" s="59"/>
       <c r="L48" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P48" s="55" t="s">
+      <c r="P48" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q48" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Q48" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="R48" s="2" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="37.5" customHeight="1">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="54" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J49" s="57" t="s">
+      <c r="J49" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="K49" s="48" t="s">
+      <c r="K49" s="57" t="s">
         <v>67</v>
       </c>
       <c r="L49" s="6" t="s">
@@ -3978,33 +4334,33 @@
         <v>152</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P49" s="55" t="s">
-        <v>249</v>
+      <c r="P49" s="46" t="s">
+        <v>241</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="38.25" customHeight="1">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="47"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="56"/>
       <c r="J50" s="58"/>
-      <c r="K50" s="48"/>
+      <c r="K50" s="57"/>
       <c r="L50" s="6" t="s">
         <v>126</v>
       </c>
@@ -4012,67 +4368,67 @@
         <v>149</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P50" s="55" t="s">
-        <v>244</v>
+      <c r="P50" s="46" t="s">
+        <v>238</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="51.75">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="47"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="58"/>
-      <c r="K51" s="48"/>
+      <c r="K51" s="57"/>
       <c r="L51" s="6" t="s">
         <v>150</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P51" s="56" t="s">
-        <v>265</v>
+      <c r="P51" s="47" t="s">
+        <v>257</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="52.15" customHeight="1">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="47"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="58"/>
-      <c r="K52" s="48"/>
+      <c r="K52" s="57"/>
       <c r="L52" s="6" t="s">
         <v>151</v>
       </c>
@@ -4080,51 +4436,51 @@
         <v>127</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="18" customHeight="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="47"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="58"/>
     </row>
     <row r="54" spans="1:19" ht="18" customHeight="1">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="45"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="54"/>
       <c r="I54" s="3"/>
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:19" ht="18" customHeight="1">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="45"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="54"/>
       <c r="I55" s="3"/>
       <c r="J55" s="23"/>
     </row>
@@ -4178,10 +4534,10 @@
       <c r="H59" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I59" s="47" t="s">
+      <c r="I59" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="47"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="6" t="s">
         <v>16</v>
       </c>
@@ -4203,52 +4559,52 @@
       <c r="Q59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="53" t="s">
-        <v>267</v>
+      <c r="R59" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="51.75" customHeight="1">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="G60" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H60" s="54" t="s">
         <v>74</v>
       </c>
       <c r="I60" s="26" t="s">
         <v>175</v>
       </c>
       <c r="J60" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="K60" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="K60" s="57" t="s">
         <v>66</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>153</v>
@@ -4258,21 +4614,21 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="34.5">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="45"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="54"/>
       <c r="I61" s="32" t="s">
         <v>140</v>
       </c>
       <c r="J61" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="K61" s="48"/>
+        <v>199</v>
+      </c>
+      <c r="K61" s="57"/>
       <c r="L61" s="6" t="s">
         <v>11</v>
       </c>
@@ -4287,17 +4643,17 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="18">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="45"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="54"/>
       <c r="I62" s="32"/>
       <c r="J62" s="33"/>
-      <c r="K62" s="48"/>
+      <c r="K62" s="57"/>
       <c r="L62" s="6" t="s">
         <v>100</v>
       </c>
@@ -4312,21 +4668,21 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="60" customHeight="1">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="45"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="54"/>
       <c r="I63" s="32" t="s">
         <v>75</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="K63" s="48"/>
+        <v>224</v>
+      </c>
+      <c r="K63" s="57"/>
       <c r="L63" s="6" t="s">
         <v>14</v>
       </c>
@@ -4341,21 +4697,21 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="62.25" customHeight="1">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="45"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="54"/>
       <c r="I64" s="32" t="s">
         <v>76</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="K64" s="48"/>
+        <v>223</v>
+      </c>
+      <c r="K64" s="57"/>
       <c r="L64" s="6" t="s">
         <v>55</v>
       </c>
@@ -4370,68 +4726,68 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="55.5" customHeight="1">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="45"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="54"/>
       <c r="I65" s="32" t="s">
         <v>77</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K65" s="15" t="s">
         <v>17</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="N65" s="61" t="s">
-        <v>262</v>
+        <v>209</v>
+      </c>
+      <c r="N65" s="51" t="s">
+        <v>254</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P65" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="P65" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q65" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="Q65" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="R65" s="2" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="141.75" customHeight="1">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="45"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="54"/>
       <c r="I66" s="32" t="s">
         <v>78</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="K66" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="K66" s="57" t="s">
         <v>67</v>
       </c>
       <c r="L66" s="6" t="s">
         <v>177</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>179</v>
@@ -4440,33 +4796,33 @@
         <v>87</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="142.5" customHeight="1">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="45"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="54"/>
       <c r="I67" s="32" t="s">
         <v>79</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="K67" s="48"/>
+        <v>220</v>
+      </c>
+      <c r="K67" s="57"/>
       <c r="L67" s="6" t="s">
         <v>178</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>180</v>
@@ -4474,90 +4830,90 @@
       <c r="O67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P67" s="55" t="s">
-        <v>266</v>
+      <c r="P67" s="46" t="s">
+        <v>258</v>
       </c>
       <c r="Q67" s="23" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="R67" s="23" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="45"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="54"/>
       <c r="I68" s="3"/>
       <c r="J68" s="23"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="45"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="54"/>
       <c r="I69" s="3"/>
       <c r="J69" s="23"/>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="45"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="54"/>
       <c r="I70" s="3"/>
       <c r="J70" s="23"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="45"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="54"/>
       <c r="I71" s="3"/>
       <c r="J71" s="23"/>
       <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="18">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="45"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="54"/>
       <c r="I72" s="3"/>
       <c r="J72" s="23"/>
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:18" ht="36" customHeight="1">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="45"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="54"/>
       <c r="I73" s="3"/>
       <c r="J73" s="23"/>
       <c r="K73" s="26"/>
@@ -4565,62 +4921,62 @@
       <c r="M73" s="23"/>
     </row>
     <row r="74" spans="1:18" ht="18" customHeight="1">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="45"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="54"/>
       <c r="I74" s="3"/>
       <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:18" ht="18" customHeight="1">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="45"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="54"/>
       <c r="I75" s="3"/>
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:18" ht="51.75" customHeight="1">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="44" t="s">
+      <c r="E76" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="44" t="s">
+      <c r="F76" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G76" s="44"/>
-      <c r="H76" s="45" t="s">
+      <c r="G76" s="53"/>
+      <c r="H76" s="54" t="s">
         <v>135</v>
       </c>
       <c r="I76" s="28"/>
       <c r="J76" s="30"/>
-      <c r="K76" s="48" t="s">
+      <c r="K76" s="57" t="s">
         <v>176</v>
       </c>
       <c r="L76" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>153</v>
@@ -4630,17 +4986,17 @@
       </c>
     </row>
     <row r="77" spans="1:18" ht="18">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="45"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="54"/>
       <c r="I77" s="28"/>
       <c r="J77" s="29"/>
-      <c r="K77" s="48"/>
+      <c r="K77" s="57"/>
       <c r="L77" s="6" t="s">
         <v>11</v>
       </c>
@@ -4655,22 +5011,22 @@
       </c>
     </row>
     <row r="78" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="45"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="54"/>
       <c r="I78" s="3"/>
       <c r="J78" s="23"/>
-      <c r="K78" s="48"/>
+      <c r="K78" s="57"/>
       <c r="L78" s="6" t="s">
         <v>100</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>155</v>
@@ -4680,17 +5036,17 @@
       </c>
     </row>
     <row r="79" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="45"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="54"/>
       <c r="I79" s="3"/>
       <c r="J79" s="23"/>
-      <c r="K79" s="48"/>
+      <c r="K79" s="57"/>
       <c r="L79" s="6" t="s">
         <v>14</v>
       </c>
@@ -4705,248 +5061,248 @@
       </c>
     </row>
     <row r="80" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="45"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="54"/>
       <c r="I80" s="3"/>
       <c r="J80" s="23"/>
-      <c r="K80" s="49" t="s">
+      <c r="K80" s="59" t="s">
         <v>17</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="45"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="54"/>
       <c r="I81" s="3"/>
       <c r="J81" s="23"/>
-      <c r="K81" s="49"/>
+      <c r="K81" s="59"/>
       <c r="L81" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P81" s="62" t="s">
-        <v>221</v>
+      <c r="P81" s="52" t="s">
+        <v>219</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="45"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="54"/>
       <c r="I82" s="3"/>
       <c r="J82" s="23"/>
-      <c r="K82" s="49"/>
+      <c r="K82" s="59"/>
       <c r="L82" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="62" t="s">
-        <v>221</v>
+      <c r="P82" s="52" t="s">
+        <v>219</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="66" customHeight="1">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="45"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="54"/>
       <c r="I83" s="3"/>
       <c r="J83" s="23"/>
       <c r="L83" s="6"/>
     </row>
     <row r="84" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="54"/>
       <c r="I84" s="3"/>
       <c r="J84" s="23"/>
-      <c r="K84" s="48" t="s">
+      <c r="K84" s="57" t="s">
         <v>67</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P84" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="72.75" customHeight="1">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="45"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="54"/>
       <c r="I85" s="3"/>
       <c r="J85" s="23"/>
-      <c r="K85" s="48"/>
+      <c r="K85" s="57"/>
       <c r="L85" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P85" s="23" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="45"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="54"/>
       <c r="I86" s="3"/>
       <c r="J86" s="23"/>
-      <c r="K86" s="48"/>
+      <c r="K86" s="57"/>
       <c r="L86" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="M86" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="N86" s="61" t="s">
-        <v>197</v>
+        <v>192</v>
+      </c>
+      <c r="M86" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="N86" s="51" t="s">
+        <v>196</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P86" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="R86" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="R86" s="2" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="87" spans="1:18" ht="84" customHeight="1">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="45"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="54"/>
       <c r="I87" s="3"/>
       <c r="J87" s="23"/>
-      <c r="K87" s="48"/>
+      <c r="K87" s="57"/>
       <c r="L87" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="M87" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="N87" s="61" t="s">
-        <v>196</v>
+        <v>230</v>
+      </c>
+      <c r="M87" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="N87" s="51" t="s">
+        <v>195</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P87" s="23" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="36" customHeight="1">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="45"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="54"/>
       <c r="I88" s="3"/>
       <c r="J88" s="23"/>
       <c r="K88" s="28"/>
@@ -4954,38 +5310,38 @@
       <c r="M88" s="23"/>
     </row>
     <row r="89" spans="1:18" ht="18" customHeight="1">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="45"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="54"/>
       <c r="I89" s="3"/>
       <c r="J89" s="23"/>
     </row>
     <row r="90" spans="1:18" ht="18" customHeight="1">
-      <c r="A90" s="44"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="45"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="54"/>
       <c r="I90" s="3"/>
       <c r="J90" s="23"/>
     </row>
     <row r="91" spans="1:18" ht="18" customHeight="1">
-      <c r="A91" s="44"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="45"/>
+      <c r="A91" s="53"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="54"/>
       <c r="I91" s="3"/>
       <c r="J91" s="23"/>
     </row>
@@ -5081,46 +5437,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="16" customFormat="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="242.25" customHeight="1">
       <c r="A3" s="11" t="s">
